--- a/CashFlow/PLUG_cashflow.xlsx
+++ b/CashFlow/PLUG_cashflow.xlsx
@@ -744,19 +744,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>336329000.0</v>
+        <v>81282000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>414000000.0</v>
+        <v>-49508000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>272589000.0</v>
+        <v>-37184000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>149873000.0</v>
+        <v>-27498000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>39309000.0</v>
+        <v>-24481000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-26204000.0</v>
@@ -868,19 +868,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>138148000.0</v>
+        <v>85748000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>175000000.0</v>
+        <v>42334000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>128061000.0</v>
+        <v>23346000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>92074000.0</v>
+        <v>19727000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>53293000.0</v>
+        <v>19879000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>10636000.0</v>
